--- a/beneficio2_professores_ativos.xlsx
+++ b/beneficio2_professores_ativos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="1410">
   <si>
     <t>Rede</t>
   </si>
@@ -2903,6 +2903,9 @@
   </si>
   <si>
     <t>fito</t>
+  </si>
+  <si>
+    <t>fleming</t>
   </si>
   <si>
     <t>florence</t>
@@ -4598,7 +4601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1355"/>
+  <dimension ref="A1:F1356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4815,7 +4818,7 @@
         <v>65</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4835,7 +4838,7 @@
         <v>66</v>
       </c>
       <c r="E12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4858,7 +4861,7 @@
         <v>34</v>
       </c>
       <c r="F13">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4935,10 +4938,10 @@
         <v>71</v>
       </c>
       <c r="E17">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4958,7 +4961,7 @@
         <v>68</v>
       </c>
       <c r="F18">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4998,7 +5001,7 @@
         <v>61</v>
       </c>
       <c r="F20">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5078,7 +5081,7 @@
         <v>21</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5098,7 +5101,7 @@
         <v>53</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5118,7 +5121,7 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5138,7 +5141,7 @@
         <v>19</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5198,7 +5201,7 @@
         <v>84</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5218,7 +5221,7 @@
         <v>110</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5238,7 +5241,7 @@
         <v>75</v>
       </c>
       <c r="F32">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5278,7 +5281,7 @@
         <v>75</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5315,10 +5318,10 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F36">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5358,7 +5361,7 @@
         <v>109</v>
       </c>
       <c r="F38">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5418,7 +5421,7 @@
         <v>114</v>
       </c>
       <c r="F41">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5438,7 +5441,7 @@
         <v>47</v>
       </c>
       <c r="F42">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5458,7 +5461,7 @@
         <v>118</v>
       </c>
       <c r="F43">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5475,10 +5478,10 @@
         <v>98</v>
       </c>
       <c r="E44">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F44">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5495,7 +5498,7 @@
         <v>99</v>
       </c>
       <c r="E45">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F45">
         <v>7</v>
@@ -5518,7 +5521,7 @@
         <v>117</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5535,7 +5538,7 @@
         <v>101</v>
       </c>
       <c r="E47">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F47">
         <v>16</v>
@@ -5638,7 +5641,7 @@
         <v>33</v>
       </c>
       <c r="F52">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6358,7 +6361,7 @@
         <v>29</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6398,7 +6401,7 @@
         <v>11</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6418,7 +6421,7 @@
         <v>13</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6438,7 +6441,7 @@
         <v>18</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6458,7 +6461,7 @@
         <v>13</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6498,7 +6501,7 @@
         <v>11</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6678,7 +6681,7 @@
         <v>13</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6718,7 +6721,7 @@
         <v>20</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6758,7 +6761,7 @@
         <v>6</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6778,7 +6781,7 @@
         <v>15</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6818,7 +6821,7 @@
         <v>46</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6838,7 +6841,7 @@
         <v>29</v>
       </c>
       <c r="F112">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6858,7 +6861,7 @@
         <v>17</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7338,7 +7341,7 @@
         <v>86</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -8032,7 +8035,7 @@
         <v>53</v>
       </c>
       <c r="F172">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -8112,7 +8115,7 @@
         <v>27</v>
       </c>
       <c r="F176">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -8149,10 +8152,10 @@
         <v>232</v>
       </c>
       <c r="E178">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F178">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -8169,7 +8172,7 @@
         <v>233</v>
       </c>
       <c r="E179">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F179">
         <v>12</v>
@@ -8232,7 +8235,7 @@
         <v>37</v>
       </c>
       <c r="F182">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -8249,10 +8252,10 @@
         <v>237</v>
       </c>
       <c r="E183">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F183">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -8272,7 +8275,7 @@
         <v>156</v>
       </c>
       <c r="F184">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -8312,7 +8315,7 @@
         <v>118</v>
       </c>
       <c r="F186">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8372,7 +8375,7 @@
         <v>69</v>
       </c>
       <c r="F189">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -8472,7 +8475,7 @@
         <v>111</v>
       </c>
       <c r="F194">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8492,7 +8495,7 @@
         <v>42</v>
       </c>
       <c r="F195">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8692,7 +8695,7 @@
         <v>110</v>
       </c>
       <c r="F205">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8752,7 +8755,7 @@
         <v>70</v>
       </c>
       <c r="F208">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8869,10 +8872,10 @@
         <v>268</v>
       </c>
       <c r="E214">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F214">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8952,7 +8955,7 @@
         <v>24</v>
       </c>
       <c r="F218">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8972,7 +8975,7 @@
         <v>72</v>
       </c>
       <c r="F219">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8989,10 +8992,10 @@
         <v>274</v>
       </c>
       <c r="E220">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F220">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -9052,7 +9055,7 @@
         <v>86</v>
       </c>
       <c r="F223">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -9089,7 +9092,7 @@
         <v>278</v>
       </c>
       <c r="E225">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F225">
         <v>19</v>
@@ -9172,7 +9175,7 @@
         <v>48</v>
       </c>
       <c r="F229">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -9189,10 +9192,10 @@
         <v>283</v>
       </c>
       <c r="E230">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F230">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -9312,7 +9315,7 @@
         <v>64</v>
       </c>
       <c r="F236">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -9532,7 +9535,7 @@
         <v>104</v>
       </c>
       <c r="F247">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9749,7 +9752,7 @@
         <v>311</v>
       </c>
       <c r="E258">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F258">
         <v>3</v>
@@ -9832,7 +9835,7 @@
         <v>20</v>
       </c>
       <c r="F262">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9869,7 +9872,7 @@
         <v>317</v>
       </c>
       <c r="E264">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -10092,7 +10095,7 @@
         <v>4</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -11529,7 +11532,7 @@
         <v>400</v>
       </c>
       <c r="E347">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F347">
         <v>4</v>
@@ -15802,7 +15805,7 @@
         <v>46</v>
       </c>
       <c r="F652">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -18935,7 +18938,7 @@
         <v>929</v>
       </c>
       <c r="E876">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F876">
         <v>0</v>
@@ -19425,7 +19428,7 @@
         <v>964</v>
       </c>
       <c r="E911">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F911">
         <v>0</v>
@@ -19439,7 +19442,7 @@
         <v>965</v>
       </c>
       <c r="E912">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F912">
         <v>0</v>
@@ -19453,7 +19456,7 @@
         <v>966</v>
       </c>
       <c r="E913">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F913">
         <v>0</v>
@@ -19467,7 +19470,7 @@
         <v>967</v>
       </c>
       <c r="E914">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F914">
         <v>0</v>
@@ -19481,7 +19484,7 @@
         <v>968</v>
       </c>
       <c r="E915">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F915">
         <v>0</v>
@@ -19495,7 +19498,7 @@
         <v>969</v>
       </c>
       <c r="E916">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F916">
         <v>0</v>
@@ -19509,7 +19512,7 @@
         <v>970</v>
       </c>
       <c r="E917">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F917">
         <v>0</v>
@@ -19523,7 +19526,7 @@
         <v>971</v>
       </c>
       <c r="E918">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="F918">
         <v>0</v>
@@ -19537,7 +19540,7 @@
         <v>972</v>
       </c>
       <c r="E919">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="F919">
         <v>0</v>
@@ -19551,7 +19554,7 @@
         <v>973</v>
       </c>
       <c r="E920">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F920">
         <v>0</v>
@@ -19579,10 +19582,10 @@
         <v>975</v>
       </c>
       <c r="E922">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F922">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -19593,10 +19596,10 @@
         <v>976</v>
       </c>
       <c r="E923">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F923">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="924" spans="1:6">
@@ -19607,7 +19610,7 @@
         <v>977</v>
       </c>
       <c r="E924">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F924">
         <v>0</v>
@@ -19621,7 +19624,7 @@
         <v>978</v>
       </c>
       <c r="E925">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F925">
         <v>0</v>
@@ -19635,7 +19638,7 @@
         <v>979</v>
       </c>
       <c r="E926">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F926">
         <v>0</v>
@@ -19649,7 +19652,7 @@
         <v>980</v>
       </c>
       <c r="E927">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F927">
         <v>0</v>
@@ -19663,7 +19666,7 @@
         <v>981</v>
       </c>
       <c r="E928">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F928">
         <v>0</v>
@@ -19677,7 +19680,7 @@
         <v>982</v>
       </c>
       <c r="E929">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F929">
         <v>0</v>
@@ -19691,7 +19694,7 @@
         <v>983</v>
       </c>
       <c r="E930">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F930">
         <v>0</v>
@@ -19705,7 +19708,7 @@
         <v>984</v>
       </c>
       <c r="E931">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F931">
         <v>0</v>
@@ -19733,7 +19736,7 @@
         <v>986</v>
       </c>
       <c r="E933">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F933">
         <v>0</v>
@@ -19747,7 +19750,7 @@
         <v>987</v>
       </c>
       <c r="E934">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F934">
         <v>0</v>
@@ -19761,7 +19764,7 @@
         <v>988</v>
       </c>
       <c r="E935">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F935">
         <v>0</v>
@@ -19775,7 +19778,7 @@
         <v>989</v>
       </c>
       <c r="E936">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F936">
         <v>0</v>
@@ -19789,7 +19792,7 @@
         <v>990</v>
       </c>
       <c r="E937">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F937">
         <v>0</v>
@@ -19831,7 +19834,7 @@
         <v>993</v>
       </c>
       <c r="E940">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F940">
         <v>0</v>
@@ -19845,7 +19848,7 @@
         <v>994</v>
       </c>
       <c r="E941">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F941">
         <v>0</v>
@@ -19915,7 +19918,7 @@
         <v>999</v>
       </c>
       <c r="E946">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F946">
         <v>0</v>
@@ -19929,7 +19932,7 @@
         <v>1000</v>
       </c>
       <c r="E947">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F947">
         <v>0</v>
@@ -19943,7 +19946,7 @@
         <v>1001</v>
       </c>
       <c r="E948">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F948">
         <v>0</v>
@@ -19957,7 +19960,7 @@
         <v>1002</v>
       </c>
       <c r="E949">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F949">
         <v>0</v>
@@ -19971,7 +19974,7 @@
         <v>1003</v>
       </c>
       <c r="E950">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F950">
         <v>0</v>
@@ -19985,10 +19988,10 @@
         <v>1004</v>
       </c>
       <c r="E951">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F951">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:6">
@@ -19999,10 +20002,10 @@
         <v>1005</v>
       </c>
       <c r="E952">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F952">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="953" spans="1:6">
@@ -20013,10 +20016,10 @@
         <v>1006</v>
       </c>
       <c r="E953">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F953">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -20027,7 +20030,7 @@
         <v>1007</v>
       </c>
       <c r="E954">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F954">
         <v>0</v>
@@ -20041,7 +20044,7 @@
         <v>1008</v>
       </c>
       <c r="E955">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F955">
         <v>0</v>
@@ -20055,7 +20058,7 @@
         <v>1009</v>
       </c>
       <c r="E956">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F956">
         <v>0</v>
@@ -20083,7 +20086,7 @@
         <v>1011</v>
       </c>
       <c r="E958">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F958">
         <v>0</v>
@@ -20097,7 +20100,7 @@
         <v>1012</v>
       </c>
       <c r="E959">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F959">
         <v>0</v>
@@ -20111,7 +20114,7 @@
         <v>1013</v>
       </c>
       <c r="E960">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F960">
         <v>0</v>
@@ -20125,7 +20128,7 @@
         <v>1014</v>
       </c>
       <c r="E961">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F961">
         <v>0</v>
@@ -20139,7 +20142,7 @@
         <v>1015</v>
       </c>
       <c r="E962">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F962">
         <v>0</v>
@@ -20153,7 +20156,7 @@
         <v>1016</v>
       </c>
       <c r="E963">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F963">
         <v>0</v>
@@ -20181,7 +20184,7 @@
         <v>1018</v>
       </c>
       <c r="E965">
-        <v>411</v>
+        <v>1</v>
       </c>
       <c r="F965">
         <v>0</v>
@@ -20195,7 +20198,7 @@
         <v>1019</v>
       </c>
       <c r="E966">
-        <v>2</v>
+        <v>411</v>
       </c>
       <c r="F966">
         <v>0</v>
@@ -20209,10 +20212,10 @@
         <v>1020</v>
       </c>
       <c r="E967">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F967">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:6">
@@ -20223,10 +20226,10 @@
         <v>1021</v>
       </c>
       <c r="E968">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F968">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="969" spans="1:6">
@@ -20237,7 +20240,7 @@
         <v>1022</v>
       </c>
       <c r="E969">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F969">
         <v>0</v>
@@ -20265,7 +20268,7 @@
         <v>1024</v>
       </c>
       <c r="E971">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F971">
         <v>0</v>
@@ -20279,7 +20282,7 @@
         <v>1025</v>
       </c>
       <c r="E972">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F972">
         <v>0</v>
@@ -20307,7 +20310,7 @@
         <v>1027</v>
       </c>
       <c r="E974">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F974">
         <v>0</v>
@@ -20321,7 +20324,7 @@
         <v>1028</v>
       </c>
       <c r="E975">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F975">
         <v>0</v>
@@ -20335,7 +20338,7 @@
         <v>1029</v>
       </c>
       <c r="E976">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F976">
         <v>0</v>
@@ -20349,7 +20352,7 @@
         <v>1030</v>
       </c>
       <c r="E977">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F977">
         <v>0</v>
@@ -20363,7 +20366,7 @@
         <v>1031</v>
       </c>
       <c r="E978">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F978">
         <v>0</v>
@@ -20419,7 +20422,7 @@
         <v>1035</v>
       </c>
       <c r="E982">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F982">
         <v>0</v>
@@ -20461,7 +20464,7 @@
         <v>1038</v>
       </c>
       <c r="E985">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F985">
         <v>0</v>
@@ -20545,10 +20548,10 @@
         <v>1044</v>
       </c>
       <c r="E991">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F991">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:6">
@@ -20559,10 +20562,10 @@
         <v>1045</v>
       </c>
       <c r="E992">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F992">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="993" spans="1:6">
@@ -20573,7 +20576,7 @@
         <v>1046</v>
       </c>
       <c r="E993">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F993">
         <v>0</v>
@@ -20587,7 +20590,7 @@
         <v>1047</v>
       </c>
       <c r="E994">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F994">
         <v>0</v>
@@ -20601,7 +20604,7 @@
         <v>1048</v>
       </c>
       <c r="E995">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F995">
         <v>0</v>
@@ -20615,7 +20618,7 @@
         <v>1049</v>
       </c>
       <c r="E996">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F996">
         <v>0</v>
@@ -20629,7 +20632,7 @@
         <v>1050</v>
       </c>
       <c r="E997">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F997">
         <v>0</v>
@@ -20643,7 +20646,7 @@
         <v>1051</v>
       </c>
       <c r="E998">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F998">
         <v>0</v>
@@ -20657,7 +20660,7 @@
         <v>1052</v>
       </c>
       <c r="E999">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F999">
         <v>0</v>
@@ -20671,7 +20674,7 @@
         <v>1053</v>
       </c>
       <c r="E1000">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1000">
         <v>0</v>
@@ -20685,7 +20688,7 @@
         <v>1054</v>
       </c>
       <c r="E1001">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1001">
         <v>0</v>
@@ -20699,7 +20702,7 @@
         <v>1055</v>
       </c>
       <c r="E1002">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F1002">
         <v>0</v>
@@ -20713,7 +20716,7 @@
         <v>1056</v>
       </c>
       <c r="E1003">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F1003">
         <v>0</v>
@@ -20727,7 +20730,7 @@
         <v>1057</v>
       </c>
       <c r="E1004">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F1004">
         <v>0</v>
@@ -20741,7 +20744,7 @@
         <v>1058</v>
       </c>
       <c r="E1005">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F1005">
         <v>0</v>
@@ -20755,7 +20758,7 @@
         <v>1059</v>
       </c>
       <c r="E1006">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F1006">
         <v>0</v>
@@ -20769,7 +20772,7 @@
         <v>1060</v>
       </c>
       <c r="E1007">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1007">
         <v>0</v>
@@ -20811,7 +20814,7 @@
         <v>1063</v>
       </c>
       <c r="E1010">
-        <v>355</v>
+        <v>1</v>
       </c>
       <c r="F1010">
         <v>0</v>
@@ -20825,7 +20828,7 @@
         <v>1064</v>
       </c>
       <c r="E1011">
-        <v>1</v>
+        <v>355</v>
       </c>
       <c r="F1011">
         <v>0</v>
@@ -20853,7 +20856,7 @@
         <v>1066</v>
       </c>
       <c r="E1013">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1013">
         <v>0</v>
@@ -20867,7 +20870,7 @@
         <v>1067</v>
       </c>
       <c r="E1014">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="F1014">
         <v>0</v>
@@ -20881,7 +20884,7 @@
         <v>1068</v>
       </c>
       <c r="E1015">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="F1015">
         <v>0</v>
@@ -20909,7 +20912,7 @@
         <v>1070</v>
       </c>
       <c r="E1017">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1017">
         <v>0</v>
@@ -20923,7 +20926,7 @@
         <v>1071</v>
       </c>
       <c r="E1018">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1018">
         <v>0</v>
@@ -20937,7 +20940,7 @@
         <v>1072</v>
       </c>
       <c r="E1019">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1019">
         <v>0</v>
@@ -20951,7 +20954,7 @@
         <v>1073</v>
       </c>
       <c r="E1020">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="F1020">
         <v>0</v>
@@ -20965,7 +20968,7 @@
         <v>1074</v>
       </c>
       <c r="E1021">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="F1021">
         <v>0</v>
@@ -20993,7 +20996,7 @@
         <v>1076</v>
       </c>
       <c r="E1023">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F1023">
         <v>0</v>
@@ -21007,7 +21010,7 @@
         <v>1077</v>
       </c>
       <c r="E1024">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F1024">
         <v>0</v>
@@ -21021,7 +21024,7 @@
         <v>1078</v>
       </c>
       <c r="E1025">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1025">
         <v>0</v>
@@ -21035,7 +21038,7 @@
         <v>1079</v>
       </c>
       <c r="E1026">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1026">
         <v>0</v>
@@ -21063,7 +21066,7 @@
         <v>1081</v>
       </c>
       <c r="E1028">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1028">
         <v>0</v>
@@ -21077,7 +21080,7 @@
         <v>1082</v>
       </c>
       <c r="E1029">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1029">
         <v>0</v>
@@ -21091,7 +21094,7 @@
         <v>1083</v>
       </c>
       <c r="E1030">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1030">
         <v>0</v>
@@ -21105,7 +21108,7 @@
         <v>1084</v>
       </c>
       <c r="E1031">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1031">
         <v>0</v>
@@ -21119,7 +21122,7 @@
         <v>1085</v>
       </c>
       <c r="E1032">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1032">
         <v>0</v>
@@ -21133,7 +21136,7 @@
         <v>1086</v>
       </c>
       <c r="E1033">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F1033">
         <v>0</v>
@@ -21147,7 +21150,7 @@
         <v>1087</v>
       </c>
       <c r="E1034">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F1034">
         <v>0</v>
@@ -21161,7 +21164,7 @@
         <v>1088</v>
       </c>
       <c r="E1035">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F1035">
         <v>0</v>
@@ -21175,7 +21178,7 @@
         <v>1089</v>
       </c>
       <c r="E1036">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="F1036">
         <v>0</v>
@@ -21189,7 +21192,7 @@
         <v>1090</v>
       </c>
       <c r="E1037">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1037">
         <v>0</v>
@@ -21203,7 +21206,7 @@
         <v>1091</v>
       </c>
       <c r="E1038">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F1038">
         <v>0</v>
@@ -21217,7 +21220,7 @@
         <v>1092</v>
       </c>
       <c r="E1039">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F1039">
         <v>0</v>
@@ -21231,7 +21234,7 @@
         <v>1093</v>
       </c>
       <c r="E1040">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F1040">
         <v>0</v>
@@ -21259,7 +21262,7 @@
         <v>1095</v>
       </c>
       <c r="E1042">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1042">
         <v>0</v>
@@ -21273,10 +21276,10 @@
         <v>1096</v>
       </c>
       <c r="E1043">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:6">
@@ -21287,10 +21290,10 @@
         <v>1097</v>
       </c>
       <c r="E1044">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F1044">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1045" spans="1:6">
@@ -21301,7 +21304,7 @@
         <v>1098</v>
       </c>
       <c r="E1045">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F1045">
         <v>0</v>
@@ -21315,7 +21318,7 @@
         <v>1099</v>
       </c>
       <c r="E1046">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1046">
         <v>0</v>
@@ -21329,7 +21332,7 @@
         <v>1100</v>
       </c>
       <c r="E1047">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F1047">
         <v>0</v>
@@ -21343,7 +21346,7 @@
         <v>1101</v>
       </c>
       <c r="E1048">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F1048">
         <v>0</v>
@@ -21371,7 +21374,7 @@
         <v>1103</v>
       </c>
       <c r="E1050">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F1050">
         <v>0</v>
@@ -21385,7 +21388,7 @@
         <v>1104</v>
       </c>
       <c r="E1051">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F1051">
         <v>0</v>
@@ -21399,7 +21402,7 @@
         <v>1105</v>
       </c>
       <c r="E1052">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1052">
         <v>0</v>
@@ -21413,7 +21416,7 @@
         <v>1106</v>
       </c>
       <c r="E1053">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1053">
         <v>0</v>
@@ -21427,7 +21430,7 @@
         <v>1107</v>
       </c>
       <c r="E1054">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F1054">
         <v>0</v>
@@ -21441,7 +21444,7 @@
         <v>1108</v>
       </c>
       <c r="E1055">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F1055">
         <v>0</v>
@@ -21455,7 +21458,7 @@
         <v>1109</v>
       </c>
       <c r="E1056">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F1056">
         <v>0</v>
@@ -21483,7 +21486,7 @@
         <v>1111</v>
       </c>
       <c r="E1058">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F1058">
         <v>0</v>
@@ -21497,7 +21500,7 @@
         <v>1112</v>
       </c>
       <c r="E1059">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F1059">
         <v>0</v>
@@ -21525,7 +21528,7 @@
         <v>1114</v>
       </c>
       <c r="E1061">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1061">
         <v>0</v>
@@ -21539,7 +21542,7 @@
         <v>1115</v>
       </c>
       <c r="E1062">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1062">
         <v>0</v>
@@ -21553,10 +21556,10 @@
         <v>1116</v>
       </c>
       <c r="E1063">
-        <v>1205</v>
+        <v>1</v>
       </c>
       <c r="F1063">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:6">
@@ -21567,10 +21570,10 @@
         <v>1117</v>
       </c>
       <c r="E1064">
-        <v>1</v>
+        <v>1205</v>
       </c>
       <c r="F1064">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1065" spans="1:6">
@@ -21581,7 +21584,7 @@
         <v>1118</v>
       </c>
       <c r="E1065">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1065">
         <v>0</v>
@@ -21609,7 +21612,7 @@
         <v>1120</v>
       </c>
       <c r="E1067">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1067">
         <v>0</v>
@@ -21623,7 +21626,7 @@
         <v>1121</v>
       </c>
       <c r="E1068">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1068">
         <v>0</v>
@@ -21637,7 +21640,7 @@
         <v>1122</v>
       </c>
       <c r="E1069">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F1069">
         <v>0</v>
@@ -21651,7 +21654,7 @@
         <v>1123</v>
       </c>
       <c r="E1070">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F1070">
         <v>0</v>
@@ -21679,7 +21682,7 @@
         <v>1125</v>
       </c>
       <c r="E1072">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1072">
         <v>0</v>
@@ -21693,7 +21696,7 @@
         <v>1126</v>
       </c>
       <c r="E1073">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1073">
         <v>0</v>
@@ -21707,7 +21710,7 @@
         <v>1127</v>
       </c>
       <c r="E1074">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1074">
         <v>0</v>
@@ -21721,7 +21724,7 @@
         <v>1128</v>
       </c>
       <c r="E1075">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1075">
         <v>0</v>
@@ -21735,7 +21738,7 @@
         <v>1129</v>
       </c>
       <c r="E1076">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1076">
         <v>0</v>
@@ -21749,7 +21752,7 @@
         <v>1130</v>
       </c>
       <c r="E1077">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1077">
         <v>0</v>
@@ -21763,7 +21766,7 @@
         <v>1131</v>
       </c>
       <c r="E1078">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1078">
         <v>0</v>
@@ -21777,7 +21780,7 @@
         <v>1132</v>
       </c>
       <c r="E1079">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1079">
         <v>0</v>
@@ -21791,7 +21794,7 @@
         <v>1133</v>
       </c>
       <c r="E1080">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1080">
         <v>0</v>
@@ -21805,7 +21808,7 @@
         <v>1134</v>
       </c>
       <c r="E1081">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1081">
         <v>0</v>
@@ -21833,7 +21836,7 @@
         <v>1136</v>
       </c>
       <c r="E1083">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1083">
         <v>0</v>
@@ -21847,7 +21850,7 @@
         <v>1137</v>
       </c>
       <c r="E1084">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1084">
         <v>0</v>
@@ -21861,7 +21864,7 @@
         <v>1138</v>
       </c>
       <c r="E1085">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1085">
         <v>0</v>
@@ -21875,7 +21878,7 @@
         <v>1139</v>
       </c>
       <c r="E1086">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1086">
         <v>0</v>
@@ -21889,7 +21892,7 @@
         <v>1140</v>
       </c>
       <c r="E1087">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F1087">
         <v>0</v>
@@ -21903,7 +21906,7 @@
         <v>1141</v>
       </c>
       <c r="E1088">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F1088">
         <v>0</v>
@@ -21959,7 +21962,7 @@
         <v>1145</v>
       </c>
       <c r="E1092">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="F1092">
         <v>0</v>
@@ -21973,7 +21976,7 @@
         <v>1146</v>
       </c>
       <c r="E1093">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F1093">
         <v>0</v>
@@ -21987,7 +21990,7 @@
         <v>1147</v>
       </c>
       <c r="E1094">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1094">
         <v>0</v>
@@ -22001,7 +22004,7 @@
         <v>1148</v>
       </c>
       <c r="E1095">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F1095">
         <v>0</v>
@@ -22015,7 +22018,7 @@
         <v>1149</v>
       </c>
       <c r="E1096">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F1096">
         <v>0</v>
@@ -22029,7 +22032,7 @@
         <v>1150</v>
       </c>
       <c r="E1097">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F1097">
         <v>0</v>
@@ -22085,7 +22088,7 @@
         <v>1154</v>
       </c>
       <c r="E1101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1101">
         <v>0</v>
@@ -22113,7 +22116,7 @@
         <v>1156</v>
       </c>
       <c r="E1103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1103">
         <v>0</v>
@@ -22127,7 +22130,7 @@
         <v>1157</v>
       </c>
       <c r="E1104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1104">
         <v>0</v>
@@ -22141,7 +22144,7 @@
         <v>1158</v>
       </c>
       <c r="E1105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1105">
         <v>0</v>
@@ -22155,7 +22158,7 @@
         <v>1159</v>
       </c>
       <c r="E1106">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F1106">
         <v>0</v>
@@ -22169,7 +22172,7 @@
         <v>1160</v>
       </c>
       <c r="E1107">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F1107">
         <v>0</v>
@@ -22183,7 +22186,7 @@
         <v>1161</v>
       </c>
       <c r="E1108">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F1108">
         <v>0</v>
@@ -22197,7 +22200,7 @@
         <v>1162</v>
       </c>
       <c r="E1109">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F1109">
         <v>0</v>
@@ -22211,7 +22214,7 @@
         <v>1163</v>
       </c>
       <c r="E1110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1110">
         <v>0</v>
@@ -22225,7 +22228,7 @@
         <v>1164</v>
       </c>
       <c r="E1111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1111">
         <v>0</v>
@@ -22239,7 +22242,7 @@
         <v>1165</v>
       </c>
       <c r="E1112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1112">
         <v>0</v>
@@ -22253,7 +22256,7 @@
         <v>1166</v>
       </c>
       <c r="E1113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1113">
         <v>0</v>
@@ -22267,7 +22270,7 @@
         <v>1167</v>
       </c>
       <c r="E1114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1114">
         <v>0</v>
@@ -22281,7 +22284,7 @@
         <v>1168</v>
       </c>
       <c r="E1115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1115">
         <v>0</v>
@@ -22295,7 +22298,7 @@
         <v>1169</v>
       </c>
       <c r="E1116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1116">
         <v>0</v>
@@ -22323,7 +22326,7 @@
         <v>1171</v>
       </c>
       <c r="E1118">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F1118">
         <v>0</v>
@@ -22337,7 +22340,7 @@
         <v>1172</v>
       </c>
       <c r="E1119">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="F1119">
         <v>0</v>
@@ -22351,7 +22354,7 @@
         <v>1173</v>
       </c>
       <c r="E1120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1120">
         <v>0</v>
@@ -22365,7 +22368,7 @@
         <v>1174</v>
       </c>
       <c r="E1121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1121">
         <v>0</v>
@@ -22421,7 +22424,7 @@
         <v>1178</v>
       </c>
       <c r="E1125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1125">
         <v>0</v>
@@ -22435,7 +22438,7 @@
         <v>1179</v>
       </c>
       <c r="E1126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1126">
         <v>0</v>
@@ -22449,10 +22452,10 @@
         <v>1180</v>
       </c>
       <c r="E1127">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="F1127">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:6">
@@ -22463,10 +22466,10 @@
         <v>1181</v>
       </c>
       <c r="E1128">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="F1128">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1129" spans="1:6">
@@ -22477,10 +22480,10 @@
         <v>1182</v>
       </c>
       <c r="E1129">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F1129">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:6">
@@ -22491,10 +22494,10 @@
         <v>1183</v>
       </c>
       <c r="E1130">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F1130">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1131" spans="1:6">
@@ -22519,7 +22522,7 @@
         <v>1185</v>
       </c>
       <c r="E1132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1132">
         <v>0</v>
@@ -22533,7 +22536,7 @@
         <v>1186</v>
       </c>
       <c r="E1133">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1133">
         <v>0</v>
@@ -22547,7 +22550,7 @@
         <v>1187</v>
       </c>
       <c r="E1134">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F1134">
         <v>0</v>
@@ -22575,7 +22578,7 @@
         <v>1189</v>
       </c>
       <c r="E1136">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F1136">
         <v>0</v>
@@ -22589,7 +22592,7 @@
         <v>1190</v>
       </c>
       <c r="E1137">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1137">
         <v>0</v>
@@ -22603,7 +22606,7 @@
         <v>1191</v>
       </c>
       <c r="E1138">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F1138">
         <v>0</v>
@@ -22631,7 +22634,7 @@
         <v>1193</v>
       </c>
       <c r="E1140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1140">
         <v>0</v>
@@ -22673,7 +22676,7 @@
         <v>1196</v>
       </c>
       <c r="E1143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1143">
         <v>0</v>
@@ -22687,7 +22690,7 @@
         <v>1197</v>
       </c>
       <c r="E1144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1144">
         <v>0</v>
@@ -22701,7 +22704,7 @@
         <v>1198</v>
       </c>
       <c r="E1145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1145">
         <v>0</v>
@@ -22715,7 +22718,7 @@
         <v>1199</v>
       </c>
       <c r="E1146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1146">
         <v>0</v>
@@ -22729,7 +22732,7 @@
         <v>1200</v>
       </c>
       <c r="E1147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1147">
         <v>0</v>
@@ -22743,7 +22746,7 @@
         <v>1201</v>
       </c>
       <c r="E1148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1148">
         <v>0</v>
@@ -22785,7 +22788,7 @@
         <v>1204</v>
       </c>
       <c r="E1151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1151">
         <v>0</v>
@@ -22799,7 +22802,7 @@
         <v>1205</v>
       </c>
       <c r="E1152">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F1152">
         <v>0</v>
@@ -22813,7 +22816,7 @@
         <v>1206</v>
       </c>
       <c r="E1153">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F1153">
         <v>0</v>
@@ -22827,7 +22830,7 @@
         <v>1207</v>
       </c>
       <c r="E1154">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F1154">
         <v>0</v>
@@ -22841,7 +22844,7 @@
         <v>1208</v>
       </c>
       <c r="E1155">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F1155">
         <v>0</v>
@@ -22869,7 +22872,7 @@
         <v>1210</v>
       </c>
       <c r="E1157">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F1157">
         <v>0</v>
@@ -22883,7 +22886,7 @@
         <v>1211</v>
       </c>
       <c r="E1158">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F1158">
         <v>0</v>
@@ -22897,7 +22900,7 @@
         <v>1212</v>
       </c>
       <c r="E1159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1159">
         <v>0</v>
@@ -23023,10 +23026,10 @@
         <v>1221</v>
       </c>
       <c r="E1168">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="F1168">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:6">
@@ -23037,10 +23040,10 @@
         <v>1222</v>
       </c>
       <c r="E1169">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="F1169">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1170" spans="1:6">
@@ -23051,7 +23054,7 @@
         <v>1223</v>
       </c>
       <c r="E1170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1170">
         <v>0</v>
@@ -23065,7 +23068,7 @@
         <v>1224</v>
       </c>
       <c r="E1171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1171">
         <v>0</v>
@@ -23079,7 +23082,7 @@
         <v>1225</v>
       </c>
       <c r="E1172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1172">
         <v>0</v>
@@ -23093,7 +23096,7 @@
         <v>1226</v>
       </c>
       <c r="E1173">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1173">
         <v>0</v>
@@ -23107,7 +23110,7 @@
         <v>1227</v>
       </c>
       <c r="E1174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1174">
         <v>0</v>
@@ -23121,7 +23124,7 @@
         <v>1228</v>
       </c>
       <c r="E1175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1175">
         <v>0</v>
@@ -23135,7 +23138,7 @@
         <v>1229</v>
       </c>
       <c r="E1176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1176">
         <v>0</v>
@@ -23149,7 +23152,7 @@
         <v>1230</v>
       </c>
       <c r="E1177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1177">
         <v>0</v>
@@ -23163,10 +23166,10 @@
         <v>1231</v>
       </c>
       <c r="E1178">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="F1178">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:6">
@@ -23177,10 +23180,10 @@
         <v>1232</v>
       </c>
       <c r="E1179">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="F1179">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1180" spans="1:6">
@@ -23191,7 +23194,7 @@
         <v>1233</v>
       </c>
       <c r="E1180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1180">
         <v>0</v>
@@ -23205,7 +23208,7 @@
         <v>1234</v>
       </c>
       <c r="E1181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1181">
         <v>0</v>
@@ -23219,7 +23222,7 @@
         <v>1235</v>
       </c>
       <c r="E1182">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F1182">
         <v>0</v>
@@ -23233,7 +23236,7 @@
         <v>1236</v>
       </c>
       <c r="E1183">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F1183">
         <v>0</v>
@@ -23247,7 +23250,7 @@
         <v>1237</v>
       </c>
       <c r="E1184">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F1184">
         <v>0</v>
@@ -23261,7 +23264,7 @@
         <v>1238</v>
       </c>
       <c r="E1185">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="F1185">
         <v>0</v>
@@ -23275,7 +23278,7 @@
         <v>1239</v>
       </c>
       <c r="E1186">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F1186">
         <v>0</v>
@@ -23289,7 +23292,7 @@
         <v>1240</v>
       </c>
       <c r="E1187">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F1187">
         <v>0</v>
@@ -23303,7 +23306,7 @@
         <v>1241</v>
       </c>
       <c r="E1188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1188">
         <v>0</v>
@@ -23345,7 +23348,7 @@
         <v>1244</v>
       </c>
       <c r="E1191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1191">
         <v>0</v>
@@ -23359,7 +23362,7 @@
         <v>1245</v>
       </c>
       <c r="E1192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1192">
         <v>0</v>
@@ -23401,7 +23404,7 @@
         <v>1248</v>
       </c>
       <c r="E1195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1195">
         <v>0</v>
@@ -23415,7 +23418,7 @@
         <v>1249</v>
       </c>
       <c r="E1196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1196">
         <v>0</v>
@@ -23429,7 +23432,7 @@
         <v>1250</v>
       </c>
       <c r="E1197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1197">
         <v>0</v>
@@ -23443,7 +23446,7 @@
         <v>1251</v>
       </c>
       <c r="E1198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1198">
         <v>0</v>
@@ -23457,7 +23460,7 @@
         <v>1252</v>
       </c>
       <c r="E1199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1199">
         <v>0</v>
@@ -23471,7 +23474,7 @@
         <v>1253</v>
       </c>
       <c r="E1200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1200">
         <v>0</v>
@@ -23485,7 +23488,7 @@
         <v>1254</v>
       </c>
       <c r="E1201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1201">
         <v>0</v>
@@ -23499,7 +23502,7 @@
         <v>1255</v>
       </c>
       <c r="E1202">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1202">
         <v>0</v>
@@ -23513,7 +23516,7 @@
         <v>1256</v>
       </c>
       <c r="E1203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1203">
         <v>0</v>
@@ -23527,7 +23530,7 @@
         <v>1257</v>
       </c>
       <c r="E1204">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1204">
         <v>0</v>
@@ -23541,10 +23544,10 @@
         <v>1258</v>
       </c>
       <c r="E1205">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F1205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:6">
@@ -23555,10 +23558,10 @@
         <v>1259</v>
       </c>
       <c r="E1206">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F1206">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1207" spans="1:6">
@@ -23569,7 +23572,7 @@
         <v>1260</v>
       </c>
       <c r="E1207">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F1207">
         <v>0</v>
@@ -23583,7 +23586,7 @@
         <v>1261</v>
       </c>
       <c r="E1208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1208">
         <v>0</v>
@@ -23611,7 +23614,7 @@
         <v>1263</v>
       </c>
       <c r="E1210">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1210">
         <v>0</v>
@@ -23625,7 +23628,7 @@
         <v>1264</v>
       </c>
       <c r="E1211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1211">
         <v>0</v>
@@ -23667,7 +23670,7 @@
         <v>1267</v>
       </c>
       <c r="E1214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1214">
         <v>0</v>
@@ -23681,7 +23684,7 @@
         <v>1268</v>
       </c>
       <c r="E1215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1215">
         <v>0</v>
@@ -23695,7 +23698,7 @@
         <v>1269</v>
       </c>
       <c r="E1216">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F1216">
         <v>0</v>
@@ -23709,7 +23712,7 @@
         <v>1270</v>
       </c>
       <c r="E1217">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F1217">
         <v>0</v>
@@ -23723,7 +23726,7 @@
         <v>1271</v>
       </c>
       <c r="E1218">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F1218">
         <v>0</v>
@@ -23737,7 +23740,7 @@
         <v>1272</v>
       </c>
       <c r="E1219">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F1219">
         <v>0</v>
@@ -23765,7 +23768,7 @@
         <v>1274</v>
       </c>
       <c r="E1221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1221">
         <v>0</v>
@@ -23779,7 +23782,7 @@
         <v>1275</v>
       </c>
       <c r="E1222">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F1222">
         <v>0</v>
@@ -23793,7 +23796,7 @@
         <v>1276</v>
       </c>
       <c r="E1223">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F1223">
         <v>0</v>
@@ -23807,7 +23810,7 @@
         <v>1277</v>
       </c>
       <c r="E1224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1224">
         <v>0</v>
@@ -23821,7 +23824,7 @@
         <v>1278</v>
       </c>
       <c r="E1225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1225">
         <v>0</v>
@@ -23905,7 +23908,7 @@
         <v>1284</v>
       </c>
       <c r="E1231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1231">
         <v>0</v>
@@ -23919,7 +23922,7 @@
         <v>1285</v>
       </c>
       <c r="E1232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1232">
         <v>0</v>
@@ -23933,7 +23936,7 @@
         <v>1286</v>
       </c>
       <c r="E1233">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1233">
         <v>0</v>
@@ -23961,7 +23964,7 @@
         <v>1288</v>
       </c>
       <c r="E1235">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1235">
         <v>0</v>
@@ -23975,7 +23978,7 @@
         <v>1289</v>
       </c>
       <c r="E1236">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1236">
         <v>0</v>
@@ -23989,7 +23992,7 @@
         <v>1290</v>
       </c>
       <c r="E1237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1237">
         <v>0</v>
@@ -24003,7 +24006,7 @@
         <v>1291</v>
       </c>
       <c r="E1238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1238">
         <v>0</v>
@@ -24017,7 +24020,7 @@
         <v>1292</v>
       </c>
       <c r="E1239">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1239">
         <v>0</v>
@@ -24031,7 +24034,7 @@
         <v>1293</v>
       </c>
       <c r="E1240">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1240">
         <v>0</v>
@@ -24045,7 +24048,7 @@
         <v>1294</v>
       </c>
       <c r="E1241">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F1241">
         <v>0</v>
@@ -24059,7 +24062,7 @@
         <v>1295</v>
       </c>
       <c r="E1242">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1242">
         <v>0</v>
@@ -24073,7 +24076,7 @@
         <v>1296</v>
       </c>
       <c r="E1243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1243">
         <v>0</v>
@@ -24087,7 +24090,7 @@
         <v>1297</v>
       </c>
       <c r="E1244">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1244">
         <v>0</v>
@@ -24101,7 +24104,7 @@
         <v>1298</v>
       </c>
       <c r="E1245">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1245">
         <v>0</v>
@@ -24115,7 +24118,7 @@
         <v>1299</v>
       </c>
       <c r="E1246">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1246">
         <v>0</v>
@@ -24129,7 +24132,7 @@
         <v>1300</v>
       </c>
       <c r="E1247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1247">
         <v>0</v>
@@ -24157,7 +24160,7 @@
         <v>1302</v>
       </c>
       <c r="E1249">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1249">
         <v>0</v>
@@ -24171,7 +24174,7 @@
         <v>1303</v>
       </c>
       <c r="E1250">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1250">
         <v>0</v>
@@ -24199,7 +24202,7 @@
         <v>1305</v>
       </c>
       <c r="E1252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1252">
         <v>0</v>
@@ -24213,7 +24216,7 @@
         <v>1306</v>
       </c>
       <c r="E1253">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1253">
         <v>0</v>
@@ -24227,7 +24230,7 @@
         <v>1307</v>
       </c>
       <c r="E1254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1254">
         <v>0</v>
@@ -24241,7 +24244,7 @@
         <v>1308</v>
       </c>
       <c r="E1255">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F1255">
         <v>0</v>
@@ -24255,7 +24258,7 @@
         <v>1309</v>
       </c>
       <c r="E1256">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1256">
         <v>0</v>
@@ -24269,7 +24272,7 @@
         <v>1310</v>
       </c>
       <c r="E1257">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F1257">
         <v>0</v>
@@ -24283,7 +24286,7 @@
         <v>1311</v>
       </c>
       <c r="E1258">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F1258">
         <v>0</v>
@@ -24297,7 +24300,7 @@
         <v>1312</v>
       </c>
       <c r="E1259">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F1259">
         <v>0</v>
@@ -24325,7 +24328,7 @@
         <v>1314</v>
       </c>
       <c r="E1261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1261">
         <v>0</v>
@@ -24339,7 +24342,7 @@
         <v>1315</v>
       </c>
       <c r="E1262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1262">
         <v>0</v>
@@ -24353,7 +24356,7 @@
         <v>1316</v>
       </c>
       <c r="E1263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1263">
         <v>0</v>
@@ -24367,7 +24370,7 @@
         <v>1317</v>
       </c>
       <c r="E1264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1264">
         <v>0</v>
@@ -24381,7 +24384,7 @@
         <v>1318</v>
       </c>
       <c r="E1265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1265">
         <v>0</v>
@@ -24395,7 +24398,7 @@
         <v>1319</v>
       </c>
       <c r="E1266">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1266">
         <v>0</v>
@@ -24409,7 +24412,7 @@
         <v>1320</v>
       </c>
       <c r="E1267">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1267">
         <v>0</v>
@@ -24423,10 +24426,10 @@
         <v>1321</v>
       </c>
       <c r="E1268">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:6">
@@ -24437,7 +24440,7 @@
         <v>1322</v>
       </c>
       <c r="E1269">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1269">
         <v>0</v>
@@ -24451,7 +24454,7 @@
         <v>1323</v>
       </c>
       <c r="E1270">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F1270">
         <v>0</v>
@@ -24465,7 +24468,7 @@
         <v>1324</v>
       </c>
       <c r="E1271">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F1271">
         <v>0</v>
@@ -24479,7 +24482,7 @@
         <v>1325</v>
       </c>
       <c r="E1272">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F1272">
         <v>0</v>
@@ -24493,7 +24496,7 @@
         <v>1326</v>
       </c>
       <c r="E1273">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F1273">
         <v>0</v>
@@ -24507,7 +24510,7 @@
         <v>1327</v>
       </c>
       <c r="E1274">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F1274">
         <v>0</v>
@@ -24521,7 +24524,7 @@
         <v>1328</v>
       </c>
       <c r="E1275">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F1275">
         <v>0</v>
@@ -24563,7 +24566,7 @@
         <v>1331</v>
       </c>
       <c r="E1278">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1278">
         <v>0</v>
@@ -24577,7 +24580,7 @@
         <v>1332</v>
       </c>
       <c r="E1279">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1279">
         <v>0</v>
@@ -24605,7 +24608,7 @@
         <v>1334</v>
       </c>
       <c r="E1281">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F1281">
         <v>0</v>
@@ -24619,7 +24622,7 @@
         <v>1335</v>
       </c>
       <c r="E1282">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1282">
         <v>0</v>
@@ -24633,7 +24636,7 @@
         <v>1336</v>
       </c>
       <c r="E1283">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1283">
         <v>0</v>
@@ -24647,7 +24650,7 @@
         <v>1337</v>
       </c>
       <c r="E1284">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F1284">
         <v>0</v>
@@ -24661,7 +24664,7 @@
         <v>1338</v>
       </c>
       <c r="E1285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1285">
         <v>0</v>
@@ -24675,7 +24678,7 @@
         <v>1339</v>
       </c>
       <c r="E1286">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1286">
         <v>0</v>
@@ -24703,7 +24706,7 @@
         <v>1341</v>
       </c>
       <c r="E1288">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1288">
         <v>0</v>
@@ -24745,7 +24748,7 @@
         <v>1344</v>
       </c>
       <c r="E1291">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1291">
         <v>0</v>
@@ -24759,7 +24762,7 @@
         <v>1345</v>
       </c>
       <c r="E1292">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1292">
         <v>0</v>
@@ -24787,7 +24790,7 @@
         <v>1347</v>
       </c>
       <c r="E1294">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F1294">
         <v>0</v>
@@ -24801,7 +24804,7 @@
         <v>1348</v>
       </c>
       <c r="E1295">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F1295">
         <v>0</v>
@@ -24815,10 +24818,10 @@
         <v>1349</v>
       </c>
       <c r="E1296">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F1296">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:6">
@@ -24829,10 +24832,10 @@
         <v>1350</v>
       </c>
       <c r="E1297">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1297">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1298" spans="1:6">
@@ -24843,7 +24846,7 @@
         <v>1351</v>
       </c>
       <c r="E1298">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1298">
         <v>0</v>
@@ -24885,7 +24888,7 @@
         <v>1354</v>
       </c>
       <c r="E1301">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1301">
         <v>0</v>
@@ -24899,7 +24902,7 @@
         <v>1355</v>
       </c>
       <c r="E1302">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1302">
         <v>0</v>
@@ -24997,7 +25000,7 @@
         <v>1362</v>
       </c>
       <c r="E1309">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1309">
         <v>0</v>
@@ -25011,7 +25014,7 @@
         <v>1363</v>
       </c>
       <c r="E1310">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1310">
         <v>0</v>
@@ -25081,7 +25084,7 @@
         <v>1368</v>
       </c>
       <c r="E1315">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1315">
         <v>0</v>
@@ -25095,7 +25098,7 @@
         <v>1369</v>
       </c>
       <c r="E1316">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1316">
         <v>0</v>
@@ -25123,7 +25126,7 @@
         <v>1371</v>
       </c>
       <c r="E1318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1318">
         <v>0</v>
@@ -25151,7 +25154,7 @@
         <v>1373</v>
       </c>
       <c r="E1320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1320">
         <v>0</v>
@@ -25179,7 +25182,7 @@
         <v>1375</v>
       </c>
       <c r="E1322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1322">
         <v>0</v>
@@ -25193,7 +25196,7 @@
         <v>1376</v>
       </c>
       <c r="E1323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1323">
         <v>0</v>
@@ -25207,7 +25210,7 @@
         <v>1377</v>
       </c>
       <c r="E1324">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1324">
         <v>0</v>
@@ -25221,7 +25224,7 @@
         <v>1378</v>
       </c>
       <c r="E1325">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1325">
         <v>0</v>
@@ -25235,7 +25238,7 @@
         <v>1379</v>
       </c>
       <c r="E1326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1326">
         <v>0</v>
@@ -25263,10 +25266,10 @@
         <v>1381</v>
       </c>
       <c r="E1328">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F1328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:6">
@@ -25277,10 +25280,10 @@
         <v>1382</v>
       </c>
       <c r="E1329">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F1329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:6">
@@ -25291,7 +25294,7 @@
         <v>1383</v>
       </c>
       <c r="E1330">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F1330">
         <v>0</v>
@@ -25305,7 +25308,7 @@
         <v>1384</v>
       </c>
       <c r="E1331">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F1331">
         <v>0</v>
@@ -25319,10 +25322,10 @@
         <v>1385</v>
       </c>
       <c r="E1332">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F1332">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:6">
@@ -25333,10 +25336,10 @@
         <v>1386</v>
       </c>
       <c r="E1333">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F1333">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1334" spans="1:6">
@@ -25347,7 +25350,7 @@
         <v>1387</v>
       </c>
       <c r="E1334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1334">
         <v>0</v>
@@ -25361,7 +25364,7 @@
         <v>1388</v>
       </c>
       <c r="E1335">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="F1335">
         <v>0</v>
@@ -25375,7 +25378,7 @@
         <v>1389</v>
       </c>
       <c r="E1336">
-        <v>7</v>
+        <v>399</v>
       </c>
       <c r="F1336">
         <v>0</v>
@@ -25389,7 +25392,7 @@
         <v>1390</v>
       </c>
       <c r="E1337">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F1337">
         <v>0</v>
@@ -25403,7 +25406,7 @@
         <v>1391</v>
       </c>
       <c r="E1338">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F1338">
         <v>0</v>
@@ -25417,7 +25420,7 @@
         <v>1392</v>
       </c>
       <c r="E1339">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F1339">
         <v>0</v>
@@ -25431,7 +25434,7 @@
         <v>1393</v>
       </c>
       <c r="E1340">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F1340">
         <v>0</v>
@@ -25445,7 +25448,7 @@
         <v>1394</v>
       </c>
       <c r="E1341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1341">
         <v>0</v>
@@ -25487,7 +25490,7 @@
         <v>1397</v>
       </c>
       <c r="E1344">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F1344">
         <v>0</v>
@@ -25501,7 +25504,7 @@
         <v>1398</v>
       </c>
       <c r="E1345">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F1345">
         <v>0</v>
@@ -25515,7 +25518,7 @@
         <v>1399</v>
       </c>
       <c r="E1346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1346">
         <v>0</v>
@@ -25529,7 +25532,7 @@
         <v>1400</v>
       </c>
       <c r="E1347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1347">
         <v>0</v>
@@ -25543,7 +25546,7 @@
         <v>1401</v>
       </c>
       <c r="E1348">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1348">
         <v>0</v>
@@ -25571,7 +25574,7 @@
         <v>1403</v>
       </c>
       <c r="E1350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1350">
         <v>0</v>
@@ -25585,7 +25588,7 @@
         <v>1404</v>
       </c>
       <c r="E1351">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F1351">
         <v>0</v>
@@ -25599,7 +25602,7 @@
         <v>1405</v>
       </c>
       <c r="E1352">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F1352">
         <v>0</v>
@@ -25613,7 +25616,7 @@
         <v>1406</v>
       </c>
       <c r="E1353">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1353">
         <v>0</v>
@@ -25627,7 +25630,7 @@
         <v>1407</v>
       </c>
       <c r="E1354">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1354">
         <v>0</v>
@@ -25644,6 +25647,20 @@
         <v>1</v>
       </c>
       <c r="F1355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:6">
+      <c r="A1356" s="1">
+        <v>1354</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E1356">
+        <v>1</v>
+      </c>
+      <c r="F1356">
         <v>0</v>
       </c>
     </row>
